--- a/Images_and_Data/Embedded_Qs/2_5_systems.xlsx
+++ b/Images_and_Data/Embedded_Qs/2_5_systems.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Colab Notebooks\ModSimPy_Directory\Images_and_Data\Embedded_Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B97638-B5D6-4DC4-83A3-95D32FC2A812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD1F211-D613-4204-A8EC-FDBE398B44F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="2" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="5" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="6" r:id="rId1"/>
     <sheet name="1_" sheetId="7" r:id="rId2"/>
     <sheet name="2_" sheetId="8" r:id="rId3"/>
     <sheet name="3_" sheetId="9" r:id="rId4"/>
-    <sheet name="4_MultC" sheetId="1" r:id="rId5"/>
-    <sheet name="5_Quant" sheetId="3" r:id="rId6"/>
-    <sheet name="6_MultAns" sheetId="4" r:id="rId7"/>
-    <sheet name="7_Matching" sheetId="5" r:id="rId8"/>
+    <sheet name="4_" sheetId="1" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId6"/>
+    <sheet name="5_Quant" sheetId="3" r:id="rId7"/>
+    <sheet name="6_MultAns" sheetId="4" r:id="rId8"/>
+    <sheet name="7_Matching" sheetId="5" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,19 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="62">
-  <si>
-    <t>What is the color of the car?</t>
-  </si>
-  <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>Green</t>
-  </si>
-  <si>
-    <t>Blue</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="73">
   <si>
     <t>Black</t>
   </si>
@@ -69,9 +58,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>Obviously it's not red.</t>
-  </si>
-  <si>
     <t>Comment</t>
   </si>
   <si>
@@ -81,9 +67,6 @@
     <t>You're stupid.</t>
   </si>
   <si>
-    <t>So close. But not really that close.</t>
-  </si>
-  <si>
     <t>What is 40.1 times 3?</t>
   </si>
   <si>
@@ -229,6 +212,57 @@
   </si>
   <si>
     <t>Yep!  The non-capital letters (i,s,r) represent percentages of the total population</t>
+  </si>
+  <si>
+    <t>Which translation of 'dr/dt = Ri' is best?</t>
+  </si>
+  <si>
+    <t>The rate of change of the fraction of recovered students is equal to the number of sick students who recover</t>
+  </si>
+  <si>
+    <t>The rate of change of the fraction of recovered students is equal to the fraction of sick students who recover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The rate of change of the fraction of recovered students is equal to the fraction of sick students </t>
+  </si>
+  <si>
+    <t>The rate of change of the number of recovered students is equal to the number of sick students who recover</t>
+  </si>
+  <si>
+    <t>The rate of change of the fraction of recovered students is equal to the fraction of sick students who have 'infectible' contact with another student</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remember that the non-capital letters are fractions! </t>
+  </si>
+  <si>
+    <t>Yep!</t>
+  </si>
+  <si>
+    <t>It would require a fourth equation</t>
+  </si>
+  <si>
+    <t>There would need to be an additional term on the right side of the 'dr/dt' equation</t>
+  </si>
+  <si>
+    <t>There would need to be an additional term on the right side of the 'ds/dt' equation</t>
+  </si>
+  <si>
+    <t>There would need to be an additional term on the right side of the 'di/dt' equation</t>
+  </si>
+  <si>
+    <t>Consider the stock-and-flow diagram above.  How would this  "flow" from "recovered" to "suscepitble" be represented in the differential equations?  Mark all that are correct.</t>
+  </si>
+  <si>
+    <t>Each equation represents the change in a given stock.  Since we have not added a new stock, we don't need a new equation</t>
+  </si>
+  <si>
+    <t>Yep! The "flow" of students into this stock would need an additional positive term in this equation.</t>
+  </si>
+  <si>
+    <t>There is no change to the flow of students into this stock.</t>
+  </si>
+  <si>
+    <t>Yep! The "flow" of students out of this stock would need an additional negative term in this equation.</t>
   </si>
 </sst>
 </file>
@@ -603,48 +637,48 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -677,48 +711,48 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -730,7 +764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2CD8C2B-D1A8-4D3F-8035-9BE809D05A5A}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -745,48 +779,48 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -799,7 +833,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,48 +847,48 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -864,10 +898,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A6C7967-0C46-4F3F-B2F4-DFA8B1F9707A}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -880,57 +914,62 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>56</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>57</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>58</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>60</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -939,6 +978,74 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D794E1D-E0A6-4375-85F4-0111B3DC8FDF}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E4A378-C52B-465E-833B-740E46756CFE}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -957,13 +1064,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -982,7 +1089,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -990,7 +1097,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -998,7 +1105,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1006,7 +1113,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7D16AA-24F2-475C-807B-39CEEE6B996C}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -1024,68 +1131,68 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1093,7 +1200,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56142F3E-EDF4-4F94-8302-41BC26975020}">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -1112,75 +1219,75 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Images_and_Data/Embedded_Qs/2_5_systems.xlsx
+++ b/Images_and_Data/Embedded_Qs/2_5_systems.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Colab Notebooks\ModSimPy_Directory\Images_and_Data\Embedded_Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD1F211-D613-4204-A8EC-FDBE398B44F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD0EE81-676E-496E-8B9B-0E69F48859DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="5" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
+    <workbookView xWindow="8580" yWindow="1440" windowWidth="20685" windowHeight="13995" firstSheet="2" activeTab="8" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="6" r:id="rId1"/>
@@ -18,10 +18,10 @@
     <sheet name="2_" sheetId="8" r:id="rId3"/>
     <sheet name="3_" sheetId="9" r:id="rId4"/>
     <sheet name="4_" sheetId="1" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="10" r:id="rId6"/>
-    <sheet name="5_Quant" sheetId="3" r:id="rId7"/>
-    <sheet name="6_MultAns" sheetId="4" r:id="rId8"/>
-    <sheet name="7_Matching" sheetId="5" r:id="rId9"/>
+    <sheet name="5_" sheetId="10" r:id="rId6"/>
+    <sheet name="6_" sheetId="11" r:id="rId7"/>
+    <sheet name="7_" sheetId="5" r:id="rId8"/>
+    <sheet name="8_" sheetId="12" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,13 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="73">
-  <si>
-    <t>Black</t>
-  </si>
-  <si>
-    <t>Correct</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="68">
   <si>
     <t>N</t>
   </si>
@@ -58,112 +52,28 @@
     <t>Y</t>
   </si>
   <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>You're brilliant!</t>
-  </si>
-  <si>
-    <t>You're stupid.</t>
-  </si>
-  <si>
-    <t>What is 40.1 times 3?</t>
-  </si>
-  <si>
-    <t>Leeway</t>
-  </si>
-  <si>
-    <t>Don't forget to include the density</t>
-  </si>
-  <si>
-    <t>You may have a problem with units</t>
-  </si>
-  <si>
-    <t>Did you add correctly, shithead?</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>What is the best kind of bear?</t>
-  </si>
-  <si>
-    <t>Grizzly</t>
-  </si>
-  <si>
-    <t>Polar</t>
-  </si>
-  <si>
-    <t>Brown</t>
-  </si>
-  <si>
-    <t>Koala</t>
-  </si>
-  <si>
-    <t>It's not even a bear, dumbshit.</t>
-  </si>
-  <si>
-    <t>Obviously it's not the grizzly.</t>
-  </si>
-  <si>
-    <t>Battlestar Galactica.</t>
-  </si>
-  <si>
-    <t>Terms</t>
-  </si>
-  <si>
     <t>Correct order of definitions</t>
   </si>
   <si>
     <t>Definitions</t>
   </si>
   <si>
-    <t>State</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
-    <t>Metric answer</t>
-  </si>
-  <si>
-    <t>Library</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
-    <t>Library answer</t>
-  </si>
-  <si>
-    <t>Function</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
-    <t>State answer</t>
-  </si>
-  <si>
     <t>Metric</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>Red herring 1</t>
-  </si>
-  <si>
-    <t>Function defintion</t>
-  </si>
-  <si>
-    <t>Red herring 2</t>
-  </si>
-  <si>
-    <t>Comment on State</t>
-  </si>
-  <si>
-    <t>Comment on "Function"</t>
+    <t>Parameter</t>
   </si>
   <si>
     <t>Percentage of students who are infected</t>
@@ -250,9 +160,6 @@
     <t>There would need to be an additional term on the right side of the 'di/dt' equation</t>
   </si>
   <si>
-    <t>Consider the stock-and-flow diagram above.  How would this  "flow" from "recovered" to "suscepitble" be represented in the differential equations?  Mark all that are correct.</t>
-  </si>
-  <si>
     <t>Each equation represents the change in a given stock.  Since we have not added a new stock, we don't need a new equation</t>
   </si>
   <si>
@@ -263,6 +170,84 @@
   </si>
   <si>
     <t>Yep! The "flow" of students out of this stock would need an additional negative term in this equation.</t>
+  </si>
+  <si>
+    <t>Consider the revised stock-and-flow diagram above.  How would this  "flow" from "Recovered" to "Suscepitble" be represented in the differential equations?  Mark all that are correct.</t>
+  </si>
+  <si>
+    <t>One of the equations in the system is 'ds/dt = -Csi'.  Which line in 'change_func' represents this equation?</t>
+  </si>
+  <si>
+    <t>s -= infected</t>
+  </si>
+  <si>
+    <t>I += infected - recovered</t>
+  </si>
+  <si>
+    <t>r += recovered</t>
+  </si>
+  <si>
+    <t>Yep!  This is the change to the fraction of susceptible students; it is reduced by the fraction that become infected.</t>
+  </si>
+  <si>
+    <t>Match the variable with its type</t>
+  </si>
+  <si>
+    <t>State variable</t>
+  </si>
+  <si>
+    <t>Independent variable</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>Total number of infected students</t>
+  </si>
+  <si>
+    <t>Number of days in simulation</t>
+  </si>
+  <si>
+    <t>Initial number of sick students</t>
+  </si>
+  <si>
+    <t>Not used yet!  For 2.5.3?</t>
+  </si>
+  <si>
+    <t>Match the term with its description</t>
+  </si>
+  <si>
+    <t>Glucose</t>
+  </si>
+  <si>
+    <t>Insulin</t>
+  </si>
+  <si>
+    <t>Hyperglycemia</t>
+  </si>
+  <si>
+    <t>FSIGT</t>
+  </si>
+  <si>
+    <t>Diabetes</t>
+  </si>
+  <si>
+    <t>A test for diabetes during which sugar is injected into the bloodstream and sugar levels are monitored over several hours.</t>
+  </si>
+  <si>
+    <t>A condition in which the sugar level in a person's blood is too high.</t>
+  </si>
+  <si>
+    <t>A type of sugar that circulates naturally in the human blood.</t>
+  </si>
+  <si>
+    <t>A long term condition characterized by severely high blood sugar levels</t>
+  </si>
+  <si>
+    <t>A hormone that the human body uses to reduce blood sugar levels</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -637,48 +622,48 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -711,48 +696,48 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -779,48 +764,48 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -847,48 +832,48 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -914,62 +899,62 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -981,8 +966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D794E1D-E0A6-4375-85F4-0111B3DC8FDF}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -993,51 +978,51 @@
   <sheetData>
     <row r="1" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1046,67 +1031,61 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E4A378-C52B-465E-833B-740E46756CFE}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{145575E8-88CD-42B8-B6C4-A1D9D2F1D328}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="A1:XFD1048576"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="36.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="46" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="72" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>7</v>
+    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>120.3</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="C2" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1114,98 +1093,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7D16AA-24F2-475C-807B-39CEEE6B996C}">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56142F3E-EDF4-4F94-8302-41BC26975020}">
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.7109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56142F3E-EDF4-4F94-8302-41BC26975020}">
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1217,78 +1109,165 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB8D83E-3DFB-4D65-A40F-8C9751FAF32C}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="C6" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
-      <c r="C7" s="1" t="s">
-        <v>37</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Images_and_Data/Embedded_Qs/2_5_systems.xlsx
+++ b/Images_and_Data/Embedded_Qs/2_5_systems.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Colab Notebooks\ModSimPy_Directory\Images_and_Data\Embedded_Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD0EE81-676E-496E-8B9B-0E69F48859DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC2A417-3C37-4911-85EE-4A42706562F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8580" yWindow="1440" windowWidth="20685" windowHeight="13995" firstSheet="2" activeTab="8" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
+    <workbookView xWindow="6270" yWindow="3600" windowWidth="20685" windowHeight="13995" firstSheet="2" activeTab="10" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="6" r:id="rId1"/>
@@ -22,6 +22,8 @@
     <sheet name="6_" sheetId="11" r:id="rId7"/>
     <sheet name="7_" sheetId="5" r:id="rId8"/>
     <sheet name="8_" sheetId="12" r:id="rId9"/>
+    <sheet name="9_" sheetId="13" r:id="rId10"/>
+    <sheet name="10_" sheetId="14" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="82">
   <si>
     <t>N</t>
   </si>
@@ -248,6 +250,48 @@
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>Why do we need to track of the concentration of insulin in the fluid 'X' and not just the concentration in the blood stream 'I'?</t>
+  </si>
+  <si>
+    <t>Insulin only acts on glucose in the tissue, and this fact slows down the process of regulating glucose</t>
+  </si>
+  <si>
+    <t>Insulin only acts on glucose in the tissue, and this fact speeds up the process of regulating glucose</t>
+  </si>
+  <si>
+    <t>Insulin is made in the tissue, but only acts on glucose when it is in the blood, and this fact slows down the process of regulating glucose</t>
+  </si>
+  <si>
+    <t>Insulin is made in the tissue, but only acts on glucose when it is in the blood, and this fact speeds down the process of regulating glucose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yep!  </t>
+  </si>
+  <si>
+    <t>-k1 (G(t) - G_b)</t>
+  </si>
+  <si>
+    <t>This term can only increase the level of glucose</t>
+  </si>
+  <si>
+    <t>This term can only decrease the level of glucose</t>
+  </si>
+  <si>
+    <t>This term can either increase or decrease the level of glucose</t>
+  </si>
+  <si>
+    <t>G' is the level of glucose in the blood at any time.  Look at the dG/dt equation, and match each term with the possible effects of the term.  Think about signs (+ and -);  G(t) and X(t) are always positive.</t>
+  </si>
+  <si>
+    <t>- X(t) G(t)</t>
+  </si>
+  <si>
+    <t>Yes!  Since G and X are always positive, this term will always be negative.</t>
+  </si>
+  <si>
+    <t>Yes!  G can either be larger or smaller than G_b, so this term can be negative or positive.</t>
   </si>
 </sst>
 </file>
@@ -283,13 +327,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -677,6 +724,143 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC55C27A-A396-40C9-9B19-A971A0895A9E}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="46" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="72" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{966D7248-972F-488D-85D5-59543DE0FD1A}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="46" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="72" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57791D97-FA66-4511-9C06-60107C3234C0}">
   <dimension ref="A1:C5"/>
@@ -1187,7 +1371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB8D83E-3DFB-4D65-A40F-8C9751FAF32C}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>

--- a/Images_and_Data/Embedded_Qs/2_5_systems.xlsx
+++ b/Images_and_Data/Embedded_Qs/2_5_systems.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Colab Notebooks\ModSimPy_Directory\Images_and_Data\Embedded_Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC2A417-3C37-4911-85EE-4A42706562F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A798454C-D267-4CB7-AC3A-F7C808F14AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6270" yWindow="3600" windowWidth="20685" windowHeight="13995" firstSheet="2" activeTab="10" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
+    <workbookView xWindow="6945" yWindow="1200" windowWidth="20685" windowHeight="13995" firstSheet="2" activeTab="11" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="6" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="8_" sheetId="12" r:id="rId9"/>
     <sheet name="9_" sheetId="13" r:id="rId10"/>
     <sheet name="10_" sheetId="14" r:id="rId11"/>
+    <sheet name="11_" sheetId="15" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="87">
   <si>
     <t>N</t>
   </si>
@@ -292,6 +293,21 @@
   </si>
   <si>
     <t>Yes!  G can either be larger or smaller than G_b, so this term can be negative or positive.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X is the level of insulin in the tissue at any time.  Look at the dX/dt equation, and as in the previous question, match each term with the possible effects of the term. </t>
+  </si>
+  <si>
+    <t>k3 (I(t) - I_b)</t>
+  </si>
+  <si>
+    <t>- k2 X(t)</t>
+  </si>
+  <si>
+    <t>Yes!  'I' can either be larger or smaller than I_b, so this term can be negative or positive.</t>
+  </si>
+  <si>
+    <t>Yes!  Since  X is always positive, this term will always be negative.</t>
   </si>
 </sst>
 </file>
@@ -795,7 +811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{966D7248-972F-488D-85D5-59543DE0FD1A}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -845,6 +861,76 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E47036AC-8D86-4F76-9922-0793956BF2CB}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="46" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="72" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
